--- a/RNN/Data/Optimised_Networks/online_direct_prediction 1_15_15_0.001_8.xlsx
+++ b/RNN/Data/Optimised_Networks/online_direct_prediction 1_15_15_0.001_8.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2296365946531296</v>
+        <v>0.2303462475538254</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.332397460938</v>
+        <v>1691.931518554688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4289813339710236</v>
+        <v>0.4298372566699982</v>
       </c>
       <c r="E2" t="n">
         <v>300</v>
@@ -408,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4609115719795227</v>
+        <v>0.4629718065261841</v>
       </c>
       <c r="C3" t="n">
-        <v>1345.979736328125</v>
+        <v>1339.507202148438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7856486439704895</v>
+        <v>0.7826856970787048</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7135761976242065</v>
+        <v>0.714295506477356</v>
       </c>
       <c r="C4" t="n">
-        <v>1056.568115234375</v>
+        <v>1043.467651367188</v>
       </c>
       <c r="D4" t="n">
-        <v>1.205870747566223</v>
+        <v>1.200413703918457</v>
       </c>
       <c r="E4" t="n">
         <v>300</v>
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8934596180915833</v>
+        <v>0.8911942839622498</v>
       </c>
       <c r="C5" t="n">
-        <v>979.0686645507812</v>
+        <v>967.8256225585938</v>
       </c>
       <c r="D5" t="n">
-        <v>1.512601375579834</v>
+        <v>1.506259560585022</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -468,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.087134718894958</v>
+        <v>1.083579301834106</v>
       </c>
       <c r="C6" t="n">
-        <v>1590.36767578125</v>
+        <v>1580.651245117188</v>
       </c>
       <c r="D6" t="n">
-        <v>1.819286823272705</v>
+        <v>1.814680576324463</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.267917275428772</v>
+        <v>1.263767957687378</v>
       </c>
       <c r="C7" t="n">
-        <v>2405.466552734375</v>
+        <v>2389.535400390625</v>
       </c>
       <c r="D7" t="n">
-        <v>2.053897380828857</v>
+        <v>2.053248882293701</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.473461508750916</v>
+        <v>1.469800591468811</v>
       </c>
       <c r="C8" t="n">
-        <v>3879.931396484375</v>
+        <v>3855.818359375</v>
       </c>
       <c r="D8" t="n">
-        <v>2.333276987075806</v>
+        <v>2.336968660354614</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.674726366996765</v>
+        <v>1.672097444534302</v>
       </c>
       <c r="C9" t="n">
-        <v>5664.73046875</v>
+        <v>5636.1953125</v>
       </c>
       <c r="D9" t="n">
-        <v>2.606074571609497</v>
+        <v>2.613670587539673</v>
       </c>
       <c r="E9" t="n">
         <v>300</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.837723731994629</v>
+        <v>1.835654973983765</v>
       </c>
       <c r="C10" t="n">
-        <v>7272.5498046875</v>
+        <v>7245.72705078125</v>
       </c>
       <c r="D10" t="n">
-        <v>2.827950239181519</v>
+        <v>2.83741569519043</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.995869994163513</v>
+        <v>1.992998003959656</v>
       </c>
       <c r="C11" t="n">
-        <v>8927.4130859375</v>
+        <v>8907.7685546875</v>
       </c>
       <c r="D11" t="n">
-        <v>3.071298360824585</v>
+        <v>3.078659057617188</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.110021591186523</v>
+        <v>2.104629993438721</v>
       </c>
       <c r="C12" t="n">
-        <v>10109.5146484375</v>
+        <v>10104.8798828125</v>
       </c>
       <c r="D12" t="n">
-        <v>3.232358455657959</v>
+        <v>3.234197854995728</v>
       </c>
       <c r="E12" t="n">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.180573463439941</v>
+        <v>2.172223567962646</v>
       </c>
       <c r="C13" t="n">
-        <v>10779.220703125</v>
+        <v>10794.044921875</v>
       </c>
       <c r="D13" t="n">
-        <v>3.33109450340271</v>
+        <v>3.326864719390869</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1914129704236984</v>
+        <v>0.1931096166372299</v>
       </c>
       <c r="C14" t="n">
-        <v>271.1560668945312</v>
+        <v>267.3259887695312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2496478706598282</v>
+        <v>0.2465012222528458</v>
       </c>
       <c r="E14" t="n">
         <v>150</v>
@@ -648,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2630190849304199</v>
+        <v>0.2658964991569519</v>
       </c>
       <c r="C15" t="n">
-        <v>178.2795867919922</v>
+        <v>184.5178680419922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4875182211399078</v>
+        <v>0.4798589050769806</v>
       </c>
       <c r="E15" t="n">
         <v>150</v>
@@ -668,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3769264221191406</v>
+        <v>0.3815297484397888</v>
       </c>
       <c r="C16" t="n">
-        <v>245.1001434326172</v>
+        <v>253.7852020263672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6550794839859009</v>
+        <v>0.646013617515564</v>
       </c>
       <c r="E16" t="n">
         <v>150</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.545398473739624</v>
+        <v>0.5490522980690002</v>
       </c>
       <c r="C17" t="n">
-        <v>113.2820358276367</v>
+        <v>118.3721237182617</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9279812574386597</v>
+        <v>0.916928768157959</v>
       </c>
       <c r="E17" t="n">
         <v>150</v>
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7271004915237427</v>
+        <v>0.7290074229240417</v>
       </c>
       <c r="C18" t="n">
-        <v>120.3638229370117</v>
+        <v>122.3870162963867</v>
       </c>
       <c r="D18" t="n">
-        <v>1.261492729187012</v>
+        <v>1.24947714805603</v>
       </c>
       <c r="E18" t="n">
         <v>150</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8987597823143005</v>
+        <v>0.8991837501525879</v>
       </c>
       <c r="C19" t="n">
-        <v>269.0413208007812</v>
+        <v>268.8950805664062</v>
       </c>
       <c r="D19" t="n">
-        <v>1.57207190990448</v>
+        <v>1.559751868247986</v>
       </c>
       <c r="E19" t="n">
         <v>150</v>
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.072087168693542</v>
+        <v>1.072006225585938</v>
       </c>
       <c r="C20" t="n">
-        <v>549.6160278320312</v>
+        <v>551.5873413085938</v>
       </c>
       <c r="D20" t="n">
-        <v>1.871531963348389</v>
+        <v>1.860525846481323</v>
       </c>
       <c r="E20" t="n">
         <v>150</v>
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.212763071060181</v>
+        <v>1.213192224502563</v>
       </c>
       <c r="C21" t="n">
-        <v>875.9163208007812</v>
+        <v>882.5154418945312</v>
       </c>
       <c r="D21" t="n">
-        <v>2.080343961715698</v>
+        <v>2.071847677230835</v>
       </c>
       <c r="E21" t="n">
         <v>150</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.336941599845886</v>
+        <v>1.338067054748535</v>
       </c>
       <c r="C22" t="n">
-        <v>1256.641357421875</v>
+        <v>1267.257568359375</v>
       </c>
       <c r="D22" t="n">
-        <v>2.217132329940796</v>
+        <v>2.210996866226196</v>
       </c>
       <c r="E22" t="n">
         <v>150</v>
@@ -808,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.437156319618225</v>
+        <v>1.438705921173096</v>
       </c>
       <c r="C23" t="n">
-        <v>1630.693725585938</v>
+        <v>1642.106201171875</v>
       </c>
       <c r="D23" t="n">
-        <v>2.294956922531128</v>
+        <v>2.290498733520508</v>
       </c>
       <c r="E23" t="n">
         <v>150</v>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.531928777694702</v>
+        <v>1.533391118049622</v>
       </c>
       <c r="C24" t="n">
-        <v>2003.018798828125</v>
+        <v>2011.973876953125</v>
       </c>
       <c r="D24" t="n">
-        <v>2.367737293243408</v>
+        <v>2.364567041397095</v>
       </c>
       <c r="E24" t="n">
         <v>150</v>
@@ -848,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.592015624046326</v>
+        <v>1.593457937240601</v>
       </c>
       <c r="C25" t="n">
-        <v>2288.754638671875</v>
+        <v>2292.759033203125</v>
       </c>
       <c r="D25" t="n">
-        <v>2.399623870849609</v>
+        <v>2.398005485534668</v>
       </c>
       <c r="E25" t="n">
         <v>150</v>
